--- a/IRCS3_local/IRCS4_build/input_excel/input ul con.xlsx
+++ b/IRCS3_local/IRCS4_build/input_excel/input ul con.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\run control 4\input_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RUN 3\control_3\IRCS3_local\IRCS4_build\input_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516E91FD-167F-4F0F-905D-C9B5C6BD975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D16D6E-E431-430B-AF50-04515A13FC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3E507947-667D-48FC-8161-25FD0280FDA7}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Filter RAFM" sheetId="2" r:id="rId4"/>
     <sheet name="Code" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -87,36 +87,18 @@
     <t>-</t>
   </si>
   <si>
-    <t>ID0002_AZUL_F_D_IF-IF_IFRS-TRUEUP-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run103UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_G_D_IF-IF_IFRS-EXPNODETAILS-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run2UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_G_D_IF-IF_IFRS-NONECASSUMPNODETAILS-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_AZUL_G_D_IF-IF_IFRS-ECASSUMPEQUITYLEVEL-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run141UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_G_D_IF-IF_IFRS-ECASSUMPINTLEVEL-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run142UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_G_D_IF-IF_IFRS-ECASSUMPOTHERCURRENCY-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run4UL_Con</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>Data_Extraction_run40UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_E_D_NB_IFRS-BE-BOQ_20250630</t>
-  </si>
-  <si>
     <t>ID0002_AZUL_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20250331</t>
   </si>
   <si>
@@ -165,9 +144,6 @@
     <t>ID0002_AZUL_B_D_NB_IFRS-UNWINDINGPRJCF-BOQ_20251231</t>
   </si>
   <si>
-    <t>Data_Extraction_run41UL_Con</t>
-  </si>
-  <si>
     <t>ID0002_AZUL_G_D_IF-IF_IFRS-EXPOTHER-EOQ_20250331</t>
   </si>
   <si>
@@ -192,9 +168,6 @@
     <t>Data_Extraction_run42UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_G_D_NB_IFRS-EXPVARIANCE-EOQ_20250630</t>
-  </si>
-  <si>
     <t>ID0002_AZUL_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250331</t>
   </si>
   <si>
@@ -204,36 +177,21 @@
     <t>ID0002_AZUL_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20250930</t>
   </si>
   <si>
-    <t>Data_Extraction_run33UL_Con</t>
-  </si>
-  <si>
     <t>ID0002_AZUL_G_D_IF-IF_IFRS-NONECASSUMPOTHER-EOQ_20251231</t>
   </si>
   <si>
     <t>Data_Extraction_run43UL_Con</t>
   </si>
   <si>
-    <t>ID0002_AZUL_G_D_NB_IFRS-NFA-EOQ_20250630</t>
-  </si>
-  <si>
-    <t>ID0002_AZUL_G_D_NB_IFRS-FA-EOQ_20250630</t>
-  </si>
-  <si>
     <t>Data_Extraction_run4UL_Con - Copy</t>
   </si>
   <si>
     <t>output_path</t>
   </si>
   <si>
-    <t>D:\Python\run control 4\output</t>
-  </si>
-  <si>
     <t>output_filename</t>
   </si>
   <si>
-    <t>ul con.xlsx</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -348,16 +306,52 @@
     <t>nattr_exp_maint_inv</t>
   </si>
   <si>
-    <t>D:\Python\run control 4\Input\CF File\AZUL\Conven</t>
-  </si>
-  <si>
-    <t>D:\Python\run control 4\Input\03. RAFM\Extraction\UL\Conventional</t>
-  </si>
-  <si>
     <t>D:\Python\run control 4\Input\RAFM MANUAL\RAFM Manual ul con.xlsx</t>
   </si>
   <si>
-    <t>Data_Extraction_run1001UL_Con_citadel_agency</t>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\ul con\ARGO</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\ul con\RAFM</t>
+  </si>
+  <si>
+    <t>P:\13. Employee Folder\Christo\control 4\Q3 25\ul con</t>
+  </si>
+  <si>
+    <t>ul con Q3 25.xlsx</t>
+  </si>
+  <si>
+    <t>Data_Extraction_run10UL_Con</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_F_D_IF-IF_IFRS-TRUEUP-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_IF-IF_IFRS-EXPNODETAILS-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_IF-IF_IFRS-NONECASSUMPNODETAILS-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_IF-IF_IFRS-ECASSUMPEQUITYLEVEL-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_IF-IF_IFRS-ECASSUMPINTLEVEL-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_IF-IF_IFRS-ECASSUMPOTHERCURRENCY-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_E_D_NB_IFRS-BE-BOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_NB_IFRS-EXPVARIANCE-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_NB_IFRS-NFA-EOQ_20250930</t>
+  </si>
+  <si>
+    <t>ID0002_AZUL_G_D_NB_IFRS-FA-EOQ_20250930</t>
   </si>
 </sst>
 </file>
@@ -401,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,14 +404,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,17 +458,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -488,6 +471,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,102 +816,102 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="16">
+      <c r="A1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11">
         <v>45809</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10">
         <v>2025</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10">
         <v>30</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="15">
+      <c r="A6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="10">
         <v>20250630</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>20221231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="15"/>
+      <c r="A11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,82 +933,82 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -1116,7 +1101,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1146,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1154,23 +1139,23 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>61</v>
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>63</v>
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1183,25 +1168,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DFDF9-BC78-4956-BABA-B2D1AE47F4C2}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
@@ -1211,11 +1197,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1225,11 +1211,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
@@ -1239,11 +1225,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1253,11 +1239,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1267,11 +1253,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -1281,11 +1267,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1295,11 +1281,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>105</v>
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
@@ -1309,165 +1295,163 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>49</v>
+      <c r="B20" s="1">
+        <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>14</v>
@@ -1477,12 +1461,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1491,10 +1475,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5"/>
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1503,10 +1489,12 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5"/>
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1515,11 +1503,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>14</v>
@@ -1529,11 +1517,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>14</v>
@@ -1543,11 +1531,11 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
@@ -1555,17 +1543,89 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>59</v>
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
       </c>
       <c r="C27" s="3">
         <v>2025</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="str">
+        <f>A13&amp;"_ori"</f>
+        <v>Data_Extraction_run11UL_Con_ori</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" ref="C29:D29" si="0">C13</f>
+        <v>-</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="str">
+        <f t="shared" ref="A30:A31" si="1">A14&amp;"_ori"</f>
+        <v>Data_Extraction_run21UL_Con_ori</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:D32" si="2">B14</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Data_Extraction_run31UL_Con_ori</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="str">
+        <f>A16&amp;"_ori"</f>
+        <v>_ori</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE40447-EFD9-4533-9619-0FD56D9BC4CA}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,240 +1655,266 @@
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="str">
+        <f>B13&amp;"_ori"</f>
+        <v>Data_Extraction_run11UL_Con_ori</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="str">
+        <f>B14&amp;"_ori"</f>
+        <v>Data_Extraction_run21UL_Con_ori</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="str">
+        <f>B15&amp;"_ori"</f>
+        <v>Data_Extraction_run31UL_Con_ori</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="str">
+        <f>B16&amp;"_ori"</f>
+        <v>_ori</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
